--- a/bd_paises.xlsx
+++ b/bd_paises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Trabajo-de-grado---Ana-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgcpu1\Desktop\pruebas\Trabajo-de-grado---Final-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C2F242-7F19-4285-B036-E3D3B7AC9CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF1BB2-12CD-4002-A44C-9BD03E278776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634A749A-83C9-4AD0-8B9A-8069C24BBAB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{634A749A-83C9-4AD0-8B9A-8069C24BBAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="803">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -128,9 +128,6 @@
     <t>AZE</t>
   </si>
   <si>
-    <t>Bahamas (the)</t>
-  </si>
-  <si>
     <t>BHS</t>
   </si>
   <si>
@@ -188,15 +185,9 @@
     <t>BTN</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>BOL</t>
   </si>
   <si>
-    <t>Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
     <t>BES</t>
   </si>
   <si>
@@ -224,9 +215,6 @@
     <t>BRA</t>
   </si>
   <si>
-    <t>British Indian Ocean Territory (the)</t>
-  </si>
-  <si>
     <t>IOT</t>
   </si>
   <si>
@@ -278,15 +266,9 @@
     <t>CAN</t>
   </si>
   <si>
-    <t>Cayman Islands (the)</t>
-  </si>
-  <si>
     <t>CYM</t>
   </si>
   <si>
-    <t>Central African Republic (the)</t>
-  </si>
-  <si>
     <t>CAF</t>
   </si>
   <si>
@@ -314,9 +296,6 @@
     <t>CXR</t>
   </si>
   <si>
-    <t>Cocos (Keeling) Islands (the)</t>
-  </si>
-  <si>
     <t>CCK</t>
   </si>
   <si>
@@ -326,27 +305,12 @@
     <t>COL</t>
   </si>
   <si>
-    <t>Comoros (the)</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Congo (the Democratic Republic of the)</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Congo (the)</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Cook Islands (the)</t>
-  </si>
-  <si>
     <t>COK</t>
   </si>
   <si>
@@ -410,9 +374,6 @@
     <t>DMA</t>
   </si>
   <si>
-    <t>Dominican Republic (the)</t>
-  </si>
-  <si>
     <t>DOM</t>
   </si>
   <si>
@@ -464,15 +425,9 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>Falkland Islands (the) [Malvinas]</t>
-  </si>
-  <si>
     <t>FLK</t>
   </si>
   <si>
-    <t>Faroe Islands (the)</t>
-  </si>
-  <si>
     <t>FRO</t>
   </si>
   <si>
@@ -506,9 +461,6 @@
     <t>PYF</t>
   </si>
   <si>
-    <t>French Southern Territories (the)</t>
-  </si>
-  <si>
     <t>ATF</t>
   </si>
   <si>
@@ -518,9 +470,6 @@
     <t>GAB</t>
   </si>
   <si>
-    <t>Gambia (the)</t>
-  </si>
-  <si>
     <t>GMB</t>
   </si>
   <si>
@@ -620,9 +569,6 @@
     <t>HMD</t>
   </si>
   <si>
-    <t>Holy See (the)</t>
-  </si>
-  <si>
     <t>VAT</t>
   </si>
   <si>
@@ -662,9 +608,6 @@
     <t>IDN</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>IRN</t>
   </si>
   <si>
@@ -740,15 +683,6 @@
     <t>KIR</t>
   </si>
   <si>
-    <t>Korea (the Democratic People's Republic of)</t>
-  </si>
-  <si>
-    <t>PRK</t>
-  </si>
-  <si>
-    <t>Korea (the Republic of)</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
@@ -764,9 +698,6 @@
     <t>KGZ</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic (the)</t>
-  </si>
-  <si>
     <t>LAO</t>
   </si>
   <si>
@@ -860,9 +791,6 @@
     <t>MLT</t>
   </si>
   <si>
-    <t>Marshall Islands (the)</t>
-  </si>
-  <si>
     <t>MHL</t>
   </si>
   <si>
@@ -896,15 +824,9 @@
     <t>MEX</t>
   </si>
   <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
     <t>FSM</t>
   </si>
   <si>
-    <t>Moldova (the Republic of)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -968,9 +890,6 @@
     <t>NPL</t>
   </si>
   <si>
-    <t>Netherlands (the)</t>
-  </si>
-  <si>
     <t>NLD</t>
   </si>
   <si>
@@ -992,9 +911,6 @@
     <t>NIC</t>
   </si>
   <si>
-    <t>Niger (the)</t>
-  </si>
-  <si>
     <t>NER</t>
   </si>
   <si>
@@ -1016,9 +932,6 @@
     <t>NFK</t>
   </si>
   <si>
-    <t>Northern Mariana Islands (the)</t>
-  </si>
-  <si>
     <t>MNP</t>
   </si>
   <si>
@@ -1046,9 +959,6 @@
     <t>PLW</t>
   </si>
   <si>
-    <t>Palestine, State of</t>
-  </si>
-  <si>
     <t>PSE</t>
   </si>
   <si>
@@ -1076,9 +986,6 @@
     <t>PER</t>
   </si>
   <si>
-    <t>Philippines (the)</t>
-  </si>
-  <si>
     <t>PHL</t>
   </si>
   <si>
@@ -1124,9 +1031,6 @@
     <t>ROU</t>
   </si>
   <si>
-    <t>Russian Federation (the)</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
@@ -1148,9 +1052,6 @@
     <t>BLM</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
-  </si>
-  <si>
     <t>SHN</t>
   </si>
   <si>
@@ -1166,9 +1067,6 @@
     <t>LCA</t>
   </si>
   <si>
-    <t>Saint Martin (French part)</t>
-  </si>
-  <si>
     <t>MAF</t>
   </si>
   <si>
@@ -1238,9 +1136,6 @@
     <t>SGP</t>
   </si>
   <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
     <t>SXM</t>
   </si>
   <si>
@@ -1298,9 +1193,6 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>Sudan (the)</t>
-  </si>
-  <si>
     <t>SDN</t>
   </si>
   <si>
@@ -1334,9 +1226,6 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>Taiwan (Province of China)</t>
-  </si>
-  <si>
     <t>TWN</t>
   </si>
   <si>
@@ -1346,9 +1235,6 @@
     <t>TJK</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>TZA</t>
   </si>
   <si>
@@ -1406,9 +1292,6 @@
     <t>TKM</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands (the)</t>
-  </si>
-  <si>
     <t>TCA</t>
   </si>
   <si>
@@ -1430,27 +1313,15 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>United Arab Emirates (the)</t>
-  </si>
-  <si>
     <t>ARE</t>
   </si>
   <si>
-    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
-  </si>
-  <si>
     <t>GBR</t>
   </si>
   <si>
-    <t>United States Minor Outlying Islands (the)</t>
-  </si>
-  <si>
     <t>UMI</t>
   </si>
   <si>
-    <t>United States of America (the)</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -1472,9 +1343,6 @@
     <t>VUT</t>
   </si>
   <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>VEN</t>
   </si>
   <si>
@@ -1484,15 +1352,9 @@
     <t>VNM</t>
   </si>
   <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
     <t>VGB</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>VIR</t>
   </si>
   <si>
@@ -1595,12 +1457,6 @@
     <t>Azerbaiyán</t>
   </si>
   <si>
-    <t>Bahamas (EL)</t>
-  </si>
-  <si>
-    <t>Bahamas (el)</t>
-  </si>
-  <si>
     <t>Bahrein</t>
   </si>
   <si>
@@ -1625,18 +1481,6 @@
     <t>Bután</t>
   </si>
   <si>
-    <t>Bolívia (estado plurinacional de)</t>
-  </si>
-  <si>
-    <t>Bolivia (estado plurinacional de)</t>
-  </si>
-  <si>
-    <t>Bonaire, Sin Eustatius e Saba</t>
-  </si>
-  <si>
-    <t>Bonaire, Sint Eustatius y Saba</t>
-  </si>
-  <si>
     <t>Bósnia e Herzegovina</t>
   </si>
   <si>
@@ -1652,12 +1496,6 @@
     <t>Brasil</t>
   </si>
   <si>
-    <t>Território do Oceano Índico Britânico (EL)</t>
-  </si>
-  <si>
-    <t>Territorio del Océano Índico británico (el)</t>
-  </si>
-  <si>
     <t>Bulgária</t>
   </si>
   <si>
@@ -1706,39 +1544,12 @@
     <t>Isla de Navidad</t>
   </si>
   <si>
-    <t>Ilhas Cocos (Keeling) (o)</t>
-  </si>
-  <si>
-    <t>Islas Cocos (Keeling) (The)</t>
-  </si>
-  <si>
     <t>Colômbia</t>
   </si>
   <si>
-    <t>Comores (El)</t>
-  </si>
-  <si>
-    <t>Comoros (el)</t>
-  </si>
-  <si>
-    <t>Congo (a República Democrática de)</t>
-  </si>
-  <si>
-    <t>Congo (la República Democrática del)</t>
-  </si>
-  <si>
-    <t>Congo (EL)</t>
-  </si>
-  <si>
-    <t>Congo (el)</t>
-  </si>
-  <si>
     <t>Ilhas cozinheiras (o)</t>
   </si>
   <si>
-    <t>Islas Cook (The)</t>
-  </si>
-  <si>
     <t>Croácia</t>
   </si>
   <si>
@@ -1802,18 +1613,6 @@
     <t>Etiopía</t>
   </si>
   <si>
-    <t>Ilhas Malvinas (The) [Malvinas]</t>
-  </si>
-  <si>
-    <t>Islas Malvinas (The) [Malvinas]</t>
-  </si>
-  <si>
-    <t>Ilhas Faroe (LA)</t>
-  </si>
-  <si>
-    <t>Islas Feroe (la)</t>
-  </si>
-  <si>
     <t>Finlândia</t>
   </si>
   <si>
@@ -1838,24 +1637,12 @@
     <t>Polinesia francés</t>
   </si>
   <si>
-    <t>Territórios do Sul Francês (EL)</t>
-  </si>
-  <si>
-    <t>Territorios del sur francés (el)</t>
-  </si>
-  <si>
     <t>Gabão</t>
   </si>
   <si>
     <t>Gabón</t>
   </si>
   <si>
-    <t>Gâmbia (El)</t>
-  </si>
-  <si>
-    <t>Gambia (el)</t>
-  </si>
-  <si>
     <t>Geórgia</t>
   </si>
   <si>
@@ -1910,12 +1697,6 @@
     <t>Escuché Island y Islas McDonald</t>
   </si>
   <si>
-    <t>Santa See (El)</t>
-  </si>
-  <si>
-    <t>Santa Sede (el)</t>
-  </si>
-  <si>
     <t>Hungria</t>
   </si>
   <si>
@@ -1934,12 +1715,6 @@
     <t>Indonésia</t>
   </si>
   <si>
-    <t>Irã (Republic Islâmica do Irã)</t>
-  </si>
-  <si>
-    <t>Irán (República Islámica de)</t>
-  </si>
-  <si>
     <t>Iraque</t>
   </si>
   <si>
@@ -1988,30 +1763,12 @@
     <t>Kenia</t>
   </si>
   <si>
-    <t>Coréia (a República Popular Democrática de)</t>
-  </si>
-  <si>
-    <t>Corea (la República Popular Democrática de)</t>
-  </si>
-  <si>
-    <t>Coréia (a República de)</t>
-  </si>
-  <si>
-    <t>Corea (la República de)</t>
-  </si>
-  <si>
     <t>Quirguistão</t>
   </si>
   <si>
     <t>Kirguistán</t>
   </si>
   <si>
-    <t>República Democrática Popular do Laos (LA)</t>
-  </si>
-  <si>
-    <t>República Democrática Popular de Lao (la)</t>
-  </si>
-  <si>
     <t>Letônia</t>
   </si>
   <si>
@@ -2084,18 +1841,6 @@
     <t>México</t>
   </si>
   <si>
-    <t>Micronésia (estados federados)</t>
-  </si>
-  <si>
-    <t>Micronesia (estados federados de)</t>
-  </si>
-  <si>
-    <t>Moldávia (a República de)</t>
-  </si>
-  <si>
-    <t>Moldavia (la República de)</t>
-  </si>
-  <si>
     <t>Mônaco</t>
   </si>
   <si>
@@ -2120,12 +1865,6 @@
     <t>Namíbia</t>
   </si>
   <si>
-    <t>Holanda (EL)</t>
-  </si>
-  <si>
-    <t>Países Bajos (el)</t>
-  </si>
-  <si>
     <t>Nova Caledônia</t>
   </si>
   <si>
@@ -2141,12 +1880,6 @@
     <t>Nicarágua</t>
   </si>
   <si>
-    <t>Níger (El)</t>
-  </si>
-  <si>
-    <t>Níger (el)</t>
-  </si>
-  <si>
     <t>Nigéria</t>
   </si>
   <si>
@@ -2180,9 +1913,6 @@
     <t>Pakistán</t>
   </si>
   <si>
-    <t>Palestina, estado de</t>
-  </si>
-  <si>
     <t>Panamá</t>
   </si>
   <si>
@@ -2198,12 +1928,6 @@
     <t>Perú</t>
   </si>
   <si>
-    <t>Filipinas (EL)</t>
-  </si>
-  <si>
-    <t>Filipinas (el)</t>
-  </si>
-  <si>
     <t>Polônia</t>
   </si>
   <si>
@@ -2234,9 +1958,6 @@
     <t>Federação da Rússia (o)</t>
   </si>
   <si>
-    <t>Federación de Rusia (The)</t>
-  </si>
-  <si>
     <t>Ruanda</t>
   </si>
   <si>
@@ -2249,12 +1970,6 @@
     <t>Santa Barthélemy</t>
   </si>
   <si>
-    <t>Santa Helena, Ascensão e Tristán da Cunha</t>
-  </si>
-  <si>
-    <t>Santa Helena, Ascensión y Tristán da Cunha</t>
-  </si>
-  <si>
     <t>Saint Kitts e Nevis</t>
   </si>
   <si>
@@ -2267,9 +1982,6 @@
     <t>Santa Lucía</t>
   </si>
   <si>
-    <t>San Martín (parte francesa)</t>
-  </si>
-  <si>
     <t>São Pierre e Miquelon</t>
   </si>
   <si>
@@ -2309,9 +2021,6 @@
     <t>Singapur</t>
   </si>
   <si>
-    <t>Sint Maarten (parte holandesa)</t>
-  </si>
-  <si>
     <t>Eslováquia</t>
   </si>
   <si>
@@ -2357,12 +2066,6 @@
     <t>España</t>
   </si>
   <si>
-    <t>Sudão (EL)</t>
-  </si>
-  <si>
-    <t>Sudán (el)</t>
-  </si>
-  <si>
     <t>Surinam</t>
   </si>
   <si>
@@ -2390,24 +2093,12 @@
     <t>República Árabe Siria</t>
   </si>
   <si>
-    <t>Taiwan, província da China)</t>
-  </si>
-  <si>
-    <t>Taiwan, provincia de China)</t>
-  </si>
-  <si>
     <t>Tayikistan</t>
   </si>
   <si>
     <t>Tayikistán</t>
   </si>
   <si>
-    <t>Tanzânia, República Unida</t>
-  </si>
-  <si>
-    <t>Tanzania, República Unida de</t>
-  </si>
-  <si>
     <t>Tailândia</t>
   </si>
   <si>
@@ -2456,30 +2147,15 @@
     <t>Ucrania</t>
   </si>
   <si>
-    <t>Emirados Árabes Unidos (EL)</t>
-  </si>
-  <si>
-    <t>Emiratos Árabes Unidos (el)</t>
-  </si>
-  <si>
     <t>Reino Unido da Grã -Bretanha e Irlanda do Norte (o)</t>
   </si>
   <si>
-    <t>Reino Unido de Gran Bretaña e Irlanda del Norte (The)</t>
-  </si>
-  <si>
     <t>Ilhas menores dos Estados Unidos (LA)</t>
   </si>
   <si>
     <t>Islas menores de los Estados Unidos (la)</t>
   </si>
   <si>
-    <t>Estados Unidos da América (EL)</t>
-  </si>
-  <si>
-    <t>Estados Unidos de América (el)</t>
-  </si>
-  <si>
     <t>Uruguai</t>
   </si>
   <si>
@@ -2489,30 +2165,12 @@
     <t>Uzbekistán</t>
   </si>
   <si>
-    <t>Venezuela (Bolíva de)</t>
-  </si>
-  <si>
-    <t>Venezuela (República Bolíva de)</t>
-  </si>
-  <si>
     <t>Vietnã</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Ilhas Virgens (britânicas)</t>
-  </si>
-  <si>
-    <t>Islas Vírgenes (británicas)</t>
-  </si>
-  <si>
-    <t>Ilhas Virgens (EUA)</t>
-  </si>
-  <si>
-    <t>Islas Vírgenes (EE. UU.)</t>
-  </si>
-  <si>
     <t>Wallis e Futuna</t>
   </si>
   <si>
@@ -2541,6 +2199,252 @@
   </si>
   <si>
     <t>Islas Aland</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Território do Oceano Índico Britânico</t>
+  </si>
+  <si>
+    <t>Territorio del Océano Índico británico</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Territórios do Sul Francês</t>
+  </si>
+  <si>
+    <t>Territorios del sur francés</t>
+  </si>
+  <si>
+    <t>Gâmbia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Santa See</t>
+  </si>
+  <si>
+    <t>Santa Sede</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Países Bajos</t>
+  </si>
+  <si>
+    <t>Níger</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Sudão</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>Emirados Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Estados Unidos da América</t>
+  </si>
+  <si>
+    <t>Estados Unidos de América</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Islas Cook</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Federación de Rusia</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bolívia</t>
+  </si>
+  <si>
+    <t>Bonaire</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Islas Cocos</t>
+  </si>
+  <si>
+    <t>Ilhas Cocos</t>
+  </si>
+  <si>
+    <t>Malvinas</t>
+  </si>
+  <si>
+    <t>Islas Feroe</t>
+  </si>
+  <si>
+    <t>Ilhas Faroe</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>Irã</t>
+  </si>
+  <si>
+    <t>Corea</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Coréia</t>
+  </si>
+  <si>
+    <t>República Democrática Popular de Lao</t>
+  </si>
+  <si>
+    <t>República Democrática Popular do Laos</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>Moldávia</t>
+  </si>
+  <si>
+    <t>Micronésia</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Santa Helena</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>San Martín</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tanzânia</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Islas Vírgenes</t>
+  </si>
+  <si>
+    <t>Ilhas Virgens</t>
   </si>
 </sst>
 </file>
@@ -2920,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFC1676-2D6C-451B-8734-9DD7E1B55CFD}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5"/>
@@ -2933,24 +2837,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1">
       <c r="A1" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickBot="1">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -2961,7 +2865,7 @@
     </row>
     <row r="3" spans="1:4" ht="20.25" thickBot="1">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2975,10 +2879,10 @@
     </row>
     <row r="4" spans="1:4" ht="20.25" thickBot="1">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2989,10 +2893,10 @@
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -3031,10 +2935,10 @@
     </row>
     <row r="8" spans="1:4" ht="20.25" thickBot="1">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -3045,10 +2949,10 @@
     </row>
     <row r="9" spans="1:4" ht="20.25" thickBot="1">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -3059,10 +2963,10 @@
     </row>
     <row r="10" spans="1:4" ht="30.75" thickBot="1">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -3087,7 +2991,7 @@
     </row>
     <row r="12" spans="1:4" ht="20.25" thickBot="1">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -3115,7 +3019,7 @@
     </row>
     <row r="14" spans="1:4" ht="20.25" thickBot="1">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -3129,7 +3033,7 @@
     </row>
     <row r="15" spans="1:4" ht="20.25" thickBot="1">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3143,10 +3047,10 @@
     </row>
     <row r="16" spans="1:4" ht="20.25" thickBot="1">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -3157,3278 +3061,3250 @@
     </row>
     <row r="17" spans="1:4" ht="20.25" thickBot="1">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>721</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>721</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.25" thickBot="1">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.25" thickBot="1">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.25" thickBot="1">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.25" thickBot="1">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.25" thickBot="1">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="B22" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.25" thickBot="1">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.25" thickBot="1">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.25" thickBot="1">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.25" thickBot="1">
       <c r="A26" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="B26" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="20.25" thickBot="1">
+      <c r="A27" t="s">
+        <v>768</v>
+      </c>
+      <c r="B27" t="s">
+        <v>767</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A27" t="s">
-        <v>529</v>
-      </c>
-      <c r="B27" t="s">
-        <v>530</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:4" ht="20.25" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A28" t="s">
-        <v>531</v>
-      </c>
-      <c r="B28" t="s">
-        <v>532</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30.75" thickBot="1">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.25" thickBot="1">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.25" thickBot="1">
       <c r="A31" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="B31" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.25" thickBot="1">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="B32" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45.75" thickBot="1">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>722</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>723</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>743</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30.75" thickBot="1">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.25" thickBot="1">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.25" thickBot="1">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.25" thickBot="1">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.25" thickBot="1">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.25" thickBot="1">
       <c r="A39" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="B39" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.25" thickBot="1">
       <c r="A40" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.25" thickBot="1">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="B41" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30.75" thickBot="1">
       <c r="A42" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
       <c r="B42" t="s">
-        <v>548</v>
+        <v>494</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>744</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30.75" thickBot="1">
       <c r="A43" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="B43" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>745</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.25" thickBot="1">
       <c r="A44" t="s">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.25" thickBot="1">
       <c r="A45" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.25" thickBot="1">
       <c r="A46" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
       <c r="B46" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30.75" thickBot="1">
       <c r="A47" t="s">
-        <v>554</v>
+        <v>500</v>
       </c>
       <c r="B47" t="s">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45.75" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.25" thickBot="1">
       <c r="A48" t="s">
-        <v>556</v>
+        <v>772</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
+        <v>771</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>770</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.25" thickBot="1">
       <c r="A49" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.25" thickBot="1">
       <c r="A50" t="s">
-        <v>559</v>
+        <v>724</v>
       </c>
       <c r="B50" t="s">
-        <v>560</v>
+        <v>725</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>725</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="60.75" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20.25" thickBot="1">
       <c r="A51" t="s">
-        <v>561</v>
+        <v>726</v>
       </c>
       <c r="B51" t="s">
-        <v>562</v>
+        <v>726</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>726</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.25" thickBot="1">
       <c r="A52" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>746</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>747</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30.75" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20.25" thickBot="1">
       <c r="A53" t="s">
-        <v>565</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>566</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.25" thickBot="1">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>505</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.25" thickBot="1">
       <c r="A55" t="s">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>568</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20.25" thickBot="1">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.25" thickBot="1">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>506</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>506</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.25" thickBot="1">
       <c r="A58" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
       <c r="B58" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20.25" thickBot="1">
       <c r="A59" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="B59" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.25" thickBot="1">
       <c r="A60" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.25" thickBot="1">
       <c r="A61" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s">
-        <v>574</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.25" thickBot="1">
       <c r="A62" t="s">
-        <v>575</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20.25" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30.75" thickBot="1">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>513</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>514</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>748</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30.75" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20.25" thickBot="1">
       <c r="A64" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="B64" t="s">
-        <v>577</v>
+        <v>113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.25" thickBot="1">
       <c r="A65" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>517</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.25" thickBot="1">
       <c r="A66" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="B66" t="s">
-        <v>580</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20.25" thickBot="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30.75" thickBot="1">
       <c r="A67" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30.75" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20.25" thickBot="1">
       <c r="A68" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s">
-        <v>583</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20.25" thickBot="1">
       <c r="A69" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20.25" thickBot="1">
       <c r="A70" t="s">
-        <v>585</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.25" thickBot="1">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>524</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20.25" thickBot="1">
       <c r="A72" t="s">
-        <v>586</v>
+        <v>773</v>
       </c>
       <c r="B72" t="s">
-        <v>587</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>773</v>
+      </c>
+      <c r="C72" t="s">
+        <v>773</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="45.75" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20.25" thickBot="1">
       <c r="A73" t="s">
-        <v>588</v>
+        <v>775</v>
       </c>
       <c r="B73" t="s">
-        <v>589</v>
+        <v>774</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>749</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30.75" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20.25" thickBot="1">
       <c r="A74" t="s">
-        <v>590</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>591</v>
+        <v>131</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20.25" thickBot="1">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>526</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20.25" thickBot="1">
       <c r="A76" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20.25" thickBot="1">
       <c r="A77" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s">
-        <v>595</v>
+        <v>530</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20.25" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30.75" thickBot="1">
       <c r="A78" t="s">
-        <v>596</v>
+        <v>531</v>
       </c>
       <c r="B78" t="s">
-        <v>597</v>
+        <v>532</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30.75" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="45.75" thickBot="1">
       <c r="A79" t="s">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="B79" t="s">
-        <v>599</v>
+        <v>728</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>750</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="60.75" thickBot="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20.25" thickBot="1">
       <c r="A80" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="B80" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20.25" thickBot="1">
       <c r="A81" t="s">
-        <v>602</v>
+        <v>729</v>
       </c>
       <c r="B81" t="s">
-        <v>603</v>
+        <v>730</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>730</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20.25" thickBot="1">
       <c r="A82" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s">
-        <v>605</v>
+        <v>145</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20.25" thickBot="1">
       <c r="A83" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20.25" thickBot="1">
       <c r="A84" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s">
-        <v>608</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20.25" thickBot="1">
       <c r="A85" t="s">
-        <v>609</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20.25" thickBot="1">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>539</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>540</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20.25" thickBot="1">
       <c r="A87" t="s">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20.25" thickBot="1">
       <c r="A88" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20.25" thickBot="1">
       <c r="A89" t="s">
-        <v>614</v>
+        <v>544</v>
       </c>
       <c r="B89" t="s">
-        <v>614</v>
+        <v>545</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20.25" thickBot="1">
       <c r="A90" t="s">
-        <v>615</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>616</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.25" thickBot="1">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.25" thickBot="1">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.25" thickBot="1">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20.25" thickBot="1">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20.25" thickBot="1">
       <c r="A95" t="s">
-        <v>618</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>549</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20.25" thickBot="1">
       <c r="A96" t="s">
-        <v>619</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20.25" thickBot="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="45.75" thickBot="1">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>551</v>
       </c>
       <c r="B97" t="s">
-        <v>621</v>
+        <v>552</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="45.75" thickBot="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20.25" thickBot="1">
       <c r="A98" t="s">
-        <v>622</v>
+        <v>731</v>
       </c>
       <c r="B98" t="s">
-        <v>623</v>
+        <v>732</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>192</v>
+        <v>751</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20.25" thickBot="1">
       <c r="A99" t="s">
-        <v>624</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>625</v>
+        <v>178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20.25" thickBot="1">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20.25" thickBot="1">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>553</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>554</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20.25" thickBot="1">
       <c r="A102" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s">
-        <v>627</v>
+        <v>556</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="20.25" thickBot="1">
       <c r="A103" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s">
-        <v>629</v>
+        <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="20.25" thickBot="1">
       <c r="A104" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20.25" thickBot="1">
       <c r="A105" t="s">
-        <v>631</v>
+        <v>778</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>777</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
+        <v>776</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30.75" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20.25" thickBot="1">
       <c r="A106" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="B106" t="s">
-        <v>633</v>
+        <v>560</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="20.25" thickBot="1">
       <c r="A107" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
       <c r="B107" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="20.25" thickBot="1">
       <c r="A108" t="s">
-        <v>636</v>
+        <v>562</v>
       </c>
       <c r="B108" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="20.25" thickBot="1">
       <c r="A109" t="s">
-        <v>637</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>638</v>
+        <v>197</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="20.25" thickBot="1">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>564</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>565</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="20.25" thickBot="1">
       <c r="A111" t="s">
-        <v>639</v>
+        <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>640</v>
+        <v>201</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="20.25" thickBot="1">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>566</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="20.25" thickBot="1">
       <c r="A113" t="s">
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="B113" t="s">
-        <v>642</v>
+        <v>205</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="20.25" thickBot="1">
       <c r="A114" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>570</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="20.25" thickBot="1">
       <c r="A115" t="s">
-        <v>644</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="20.25" thickBot="1">
       <c r="A116" t="s">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="B116" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="20.25" thickBot="1">
       <c r="A117" t="s">
-        <v>648</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>649</v>
+        <v>213</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="20.25" thickBot="1">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>781</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>779</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>232</v>
+        <v>780</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="60.75" thickBot="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20.25" thickBot="1">
       <c r="A119" t="s">
-        <v>650</v>
+        <v>216</v>
       </c>
       <c r="B119" t="s">
-        <v>651</v>
+        <v>216</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="30.75" thickBot="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20.25" thickBot="1">
       <c r="A120" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="B120" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20.25" thickBot="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="45.75" thickBot="1">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>783</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>782</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>238</v>
+        <v>752</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="20.25" thickBot="1">
       <c r="A122" t="s">
-        <v>654</v>
+        <v>577</v>
       </c>
       <c r="B122" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="45.75" thickBot="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20.25" thickBot="1">
       <c r="A123" t="s">
-        <v>656</v>
+        <v>579</v>
       </c>
       <c r="B123" t="s">
-        <v>657</v>
+        <v>579</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="20.25" thickBot="1">
       <c r="A124" t="s">
-        <v>658</v>
+        <v>580</v>
       </c>
       <c r="B124" t="s">
-        <v>659</v>
+        <v>580</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="20.25" thickBot="1">
       <c r="A125" t="s">
-        <v>660</v>
+        <v>581</v>
       </c>
       <c r="B125" t="s">
-        <v>660</v>
+        <v>227</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="20.25" thickBot="1">
       <c r="A126" t="s">
-        <v>661</v>
+        <v>582</v>
       </c>
       <c r="B126" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="20.25" thickBot="1">
       <c r="A127" t="s">
-        <v>662</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="20.25" thickBot="1">
       <c r="A128" t="s">
-        <v>663</v>
+        <v>584</v>
       </c>
       <c r="B128" t="s">
-        <v>664</v>
+        <v>585</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="20.25" thickBot="1">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>586</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>586</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="20.25" thickBot="1">
       <c r="A130" t="s">
-        <v>665</v>
+        <v>587</v>
       </c>
       <c r="B130" t="s">
-        <v>666</v>
+        <v>237</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="20.25" thickBot="1">
       <c r="A131" t="s">
-        <v>667</v>
+        <v>588</v>
       </c>
       <c r="B131" t="s">
-        <v>667</v>
+        <v>239</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="20.25" thickBot="1">
       <c r="A132" t="s">
-        <v>668</v>
+        <v>589</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="20.25" thickBot="1">
       <c r="A133" t="s">
-        <v>669</v>
+        <v>590</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="20.25" thickBot="1">
       <c r="A134" t="s">
-        <v>670</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>592</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="20.25" thickBot="1">
       <c r="A135" t="s">
-        <v>671</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>672</v>
+        <v>593</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="20.25" thickBot="1">
       <c r="A136" t="s">
-        <v>673</v>
+        <v>594</v>
       </c>
       <c r="B136" t="s">
-        <v>673</v>
+        <v>249</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="20.25" thickBot="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="30.75" thickBot="1">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>595</v>
       </c>
       <c r="B137" t="s">
-        <v>674</v>
+        <v>596</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>270</v>
+        <v>753</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="20.25" thickBot="1">
       <c r="A138" t="s">
-        <v>675</v>
+        <v>597</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>597</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="30.75" thickBot="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20.25" thickBot="1">
       <c r="A139" t="s">
-        <v>676</v>
+        <v>598</v>
       </c>
       <c r="B139" t="s">
-        <v>677</v>
+        <v>254</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="20.25" thickBot="1">
       <c r="A140" t="s">
-        <v>678</v>
+        <v>599</v>
       </c>
       <c r="B140" t="s">
-        <v>678</v>
+        <v>599</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="20.25" thickBot="1">
       <c r="A141" t="s">
-        <v>679</v>
+        <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="20.25" thickBot="1">
       <c r="A142" t="s">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="B142" t="s">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="20.25" thickBot="1">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>787</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>788</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>282</v>
+        <v>788</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20.25" thickBot="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="30.75" thickBot="1">
       <c r="A144" t="s">
-        <v>681</v>
+        <v>786</v>
       </c>
       <c r="B144" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>284</v>
+        <v>784</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="45.75" thickBot="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20.25" thickBot="1">
       <c r="A145" t="s">
-        <v>682</v>
+        <v>601</v>
       </c>
       <c r="B145" t="s">
-        <v>683</v>
+        <v>602</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="30.75" thickBot="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20.25" thickBot="1">
       <c r="A146" t="s">
-        <v>684</v>
+        <v>603</v>
       </c>
       <c r="B146" t="s">
-        <v>685</v>
+        <v>266</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="20.25" thickBot="1">
       <c r="A147" t="s">
-        <v>686</v>
+        <v>268</v>
       </c>
       <c r="B147" t="s">
-        <v>687</v>
+        <v>268</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="20.25" thickBot="1">
       <c r="A148" t="s">
-        <v>688</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="20.25" thickBot="1">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>604</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>605</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="20.25" thickBot="1">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>606</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="20.25" thickBot="1">
       <c r="A151" t="s">
-        <v>689</v>
+        <v>607</v>
       </c>
       <c r="B151" t="s">
-        <v>690</v>
+        <v>276</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="20.25" thickBot="1">
       <c r="A152" t="s">
-        <v>691</v>
+        <v>608</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="20.25" thickBot="1">
       <c r="A153" t="s">
-        <v>692</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="20.25" thickBot="1">
       <c r="A154" t="s">
-        <v>693</v>
+        <v>282</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="20.25" thickBot="1">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>733</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>734</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>306</v>
+        <v>754</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20.25" thickBot="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30.75" thickBot="1">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>609</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>610</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="30.75" thickBot="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20.25" thickBot="1">
       <c r="A157" t="s">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="B157" t="s">
-        <v>695</v>
+        <v>612</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30.75" thickBot="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20.25" thickBot="1">
       <c r="A158" t="s">
-        <v>696</v>
+        <v>613</v>
       </c>
       <c r="B158" t="s">
-        <v>697</v>
+        <v>289</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="20.25" thickBot="1">
       <c r="A159" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="B159" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>314</v>
+        <v>755</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="20.25" thickBot="1">
       <c r="A160" t="s">
-        <v>700</v>
+        <v>614</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="20.25" thickBot="1">
       <c r="A161" t="s">
-        <v>701</v>
+        <v>615</v>
       </c>
       <c r="B161" t="s">
-        <v>702</v>
+        <v>294</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="20.25" thickBot="1">
       <c r="A162" t="s">
-        <v>703</v>
+        <v>616</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>617</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="20.25" thickBot="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="45.75" thickBot="1">
       <c r="A163" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>619</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>322</v>
+        <v>756</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20.25" thickBot="1">
       <c r="A164" t="s">
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="B164" t="s">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="45.75" thickBot="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20.25" thickBot="1">
       <c r="A165" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
       <c r="B165" t="s">
-        <v>708</v>
+        <v>622</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="20.25" thickBot="1">
       <c r="A166" t="s">
-        <v>709</v>
+        <v>623</v>
       </c>
       <c r="B166" t="s">
-        <v>709</v>
+        <v>624</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="20.25" thickBot="1">
       <c r="A167" t="s">
-        <v>710</v>
+        <v>305</v>
       </c>
       <c r="B167" t="s">
-        <v>711</v>
+        <v>305</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="20.25" thickBot="1">
       <c r="A168" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="B168" t="s">
-        <v>713</v>
+        <v>790</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>332</v>
+        <v>789</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="20.25" thickBot="1">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>625</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>625</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1">
       <c r="A170" t="s">
-        <v>714</v>
+        <v>626</v>
       </c>
       <c r="B170" t="s">
-        <v>714</v>
+        <v>627</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="20.25" thickBot="1">
       <c r="A171" t="s">
-        <v>715</v>
+        <v>628</v>
       </c>
       <c r="B171" t="s">
-        <v>715</v>
+        <v>312</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="30.75" thickBot="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20.25" thickBot="1">
       <c r="A172" t="s">
-        <v>716</v>
+        <v>314</v>
       </c>
       <c r="B172" t="s">
-        <v>717</v>
+        <v>629</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="20.25" thickBot="1">
       <c r="A173" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>736</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>342</v>
+        <v>757</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="20.25" thickBot="1">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B174" t="s">
-        <v>719</v>
+        <v>317</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="30.75" thickBot="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20.25" thickBot="1">
       <c r="A175" t="s">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="B175" t="s">
-        <v>721</v>
+        <v>631</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.25" thickBot="1">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20.25" thickBot="1">
       <c r="A177" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="B177" t="s">
-        <v>723</v>
+        <v>323</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.25" thickBot="1">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>633</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>634</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="20.25" thickBot="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="45.75" thickBot="1">
       <c r="A179" t="s">
-        <v>724</v>
+        <v>635</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>636</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20.25" thickBot="1">
       <c r="A180" t="s">
-        <v>725</v>
+        <v>637</v>
       </c>
       <c r="B180" t="s">
-        <v>726</v>
+        <v>638</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="45.75" thickBot="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="30.75" thickBot="1">
       <c r="A181" t="s">
-        <v>727</v>
+        <v>639</v>
       </c>
       <c r="B181" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>358</v>
+        <v>759</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20.25" thickBot="1">
       <c r="A182" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="B182" t="s">
-        <v>730</v>
+        <v>640</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="45.75" thickBot="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20.25" thickBot="1">
       <c r="A183" t="s">
-        <v>731</v>
+        <v>641</v>
       </c>
       <c r="B183" t="s">
-        <v>732</v>
+        <v>642</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20.25" thickBot="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="30.75" thickBot="1">
       <c r="A184" t="s">
-        <v>733</v>
+        <v>643</v>
       </c>
       <c r="B184" t="s">
-        <v>733</v>
+        <v>643</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="20.25" thickBot="1">
       <c r="A185" t="s">
-        <v>734</v>
+        <v>791</v>
       </c>
       <c r="B185" t="s">
-        <v>735</v>
+        <v>791</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>366</v>
+        <v>792</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="30.75" thickBot="1">
       <c r="A186" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
       <c r="B186" t="s">
-        <v>736</v>
+        <v>645</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="60.75" thickBot="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20.25" thickBot="1">
       <c r="A187" t="s">
-        <v>737</v>
+        <v>646</v>
       </c>
       <c r="B187" t="s">
-        <v>738</v>
+        <v>647</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="30.75" thickBot="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20.25" thickBot="1">
       <c r="A188" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
       <c r="B188" t="s">
-        <v>740</v>
+        <v>794</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>793</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="20.25" thickBot="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="30.75" thickBot="1">
       <c r="A189" t="s">
-        <v>741</v>
+        <v>648</v>
       </c>
       <c r="B189" t="s">
-        <v>742</v>
+        <v>649</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="30.75" thickBot="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="45.75" thickBot="1">
       <c r="A190" t="s">
-        <v>743</v>
+        <v>650</v>
       </c>
       <c r="B190" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="30.75" thickBot="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20.25" thickBot="1">
       <c r="A191" t="s">
-        <v>744</v>
+        <v>348</v>
       </c>
       <c r="B191" t="s">
-        <v>745</v>
+        <v>348</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="45.75" thickBot="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20.25" thickBot="1">
       <c r="A192" t="s">
-        <v>746</v>
+        <v>350</v>
       </c>
       <c r="B192" t="s">
-        <v>747</v>
+        <v>350</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="20.25" thickBot="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30.75" thickBot="1">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>652</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>653</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="20.25" thickBot="1">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>654</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>655</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="30.75" thickBot="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20.25" thickBot="1">
       <c r="A195" t="s">
-        <v>748</v>
+        <v>356</v>
       </c>
       <c r="B195" t="s">
-        <v>749</v>
+        <v>356</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="20.25" thickBot="1">
       <c r="A196" t="s">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="B196" t="s">
-        <v>751</v>
+        <v>358</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="20.25" thickBot="1">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="20.25" thickBot="1">
       <c r="A198" t="s">
-        <v>752</v>
+        <v>657</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>658</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="20.25" thickBot="1">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>659</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>660</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="20.25" thickBot="1">
       <c r="A200" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="B200" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>396</v>
+        <v>795</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="20.25" thickBot="1">
       <c r="A201" t="s">
-        <v>755</v>
+        <v>661</v>
       </c>
       <c r="B201" t="s">
-        <v>756</v>
+        <v>662</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30.75" thickBot="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20.25" thickBot="1">
       <c r="A202" t="s">
-        <v>757</v>
+        <v>663</v>
       </c>
       <c r="B202" t="s">
-        <v>757</v>
+        <v>664</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20.25" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="30.75" thickBot="1">
       <c r="A203" t="s">
-        <v>758</v>
+        <v>665</v>
       </c>
       <c r="B203" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="20.25" thickBot="1">
       <c r="A204" t="s">
-        <v>760</v>
+        <v>667</v>
       </c>
       <c r="B204" t="s">
-        <v>761</v>
+        <v>373</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="30.75" thickBot="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="20.25" thickBot="1">
       <c r="A205" t="s">
-        <v>762</v>
+        <v>668</v>
       </c>
       <c r="B205" t="s">
-        <v>763</v>
+        <v>669</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20.25" thickBot="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="60.75" thickBot="1">
       <c r="A206" t="s">
-        <v>764</v>
+        <v>670</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>671</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="20.25" thickBot="1">
       <c r="A207" t="s">
-        <v>765</v>
+        <v>672</v>
       </c>
       <c r="B207" t="s">
-        <v>766</v>
+        <v>673</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="60.75" thickBot="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20.25" thickBot="1">
       <c r="A208" t="s">
-        <v>767</v>
+        <v>674</v>
       </c>
       <c r="B208" t="s">
-        <v>768</v>
+        <v>675</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="20.25" thickBot="1">
       <c r="A209" t="s">
-        <v>769</v>
+        <v>383</v>
       </c>
       <c r="B209" t="s">
-        <v>770</v>
+        <v>383</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="20.25" thickBot="1">
       <c r="A210" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="B210" t="s">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>416</v>
+        <v>760</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="20.25" thickBot="1">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>676</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>676</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="20.25" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="30.75" thickBot="1">
       <c r="A212" t="s">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="B212" t="s">
-        <v>774</v>
+        <v>678</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="20.25" thickBot="1">
       <c r="A213" t="s">
-        <v>775</v>
+        <v>679</v>
       </c>
       <c r="B213" t="s">
-        <v>775</v>
+        <v>680</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="30.75" thickBot="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20.25" thickBot="1">
       <c r="A214" t="s">
-        <v>776</v>
+        <v>681</v>
       </c>
       <c r="B214" t="s">
-        <v>777</v>
+        <v>682</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="20.25" thickBot="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="30.75" thickBot="1">
       <c r="A215" t="s">
-        <v>778</v>
+        <v>683</v>
       </c>
       <c r="B215" t="s">
-        <v>779</v>
+        <v>684</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="20.25" thickBot="1">
       <c r="A216" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="B216" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>428</v>
+        <v>796</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="30.75" thickBot="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20.25" thickBot="1">
       <c r="A217" t="s">
-        <v>782</v>
+        <v>685</v>
       </c>
       <c r="B217" t="s">
-        <v>783</v>
+        <v>686</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="45.75" thickBot="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20.25" thickBot="1">
       <c r="A218" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="B218" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>432</v>
+        <v>797</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="20.25" thickBot="1">
       <c r="A219" t="s">
-        <v>786</v>
+        <v>687</v>
       </c>
       <c r="B219" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="45.75" thickBot="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20.25" thickBot="1">
       <c r="A220" t="s">
-        <v>788</v>
+        <v>689</v>
       </c>
       <c r="B220" t="s">
-        <v>789</v>
+        <v>402</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="20.25" thickBot="1">
       <c r="A221" t="s">
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="B221" t="s">
-        <v>791</v>
+        <v>691</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="20.25" thickBot="1">
       <c r="A222" t="s">
-        <v>792</v>
+        <v>406</v>
       </c>
       <c r="B222" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="20.25" thickBot="1">
       <c r="A223" t="s">
-        <v>793</v>
+        <v>408</v>
       </c>
       <c r="B223" t="s">
-        <v>794</v>
+        <v>408</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="20.25" thickBot="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="30.75" thickBot="1">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>692</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>693</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="20.25" thickBot="1">
       <c r="A225" t="s">
-        <v>446</v>
+        <v>694</v>
       </c>
       <c r="B225" t="s">
-        <v>446</v>
+        <v>695</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="30.75" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="20.25" thickBot="1">
       <c r="A226" t="s">
-        <v>795</v>
+        <v>314</v>
       </c>
       <c r="B226" t="s">
-        <v>796</v>
+        <v>696</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="20.25" thickBot="1">
       <c r="A227" t="s">
-        <v>797</v>
+        <v>697</v>
       </c>
       <c r="B227" t="s">
-        <v>798</v>
+        <v>698</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="20.25" thickBot="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="30.75" thickBot="1">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>699</v>
       </c>
       <c r="B228" t="s">
-        <v>799</v>
+        <v>700</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>452</v>
+        <v>761</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="20.25" thickBot="1">
       <c r="A229" t="s">
-        <v>800</v>
+        <v>419</v>
       </c>
       <c r="B229" t="s">
-        <v>801</v>
+        <v>419</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="45.75" thickBot="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="20.25" thickBot="1">
       <c r="A230" t="s">
-        <v>802</v>
+        <v>421</v>
       </c>
       <c r="B230" t="s">
-        <v>803</v>
+        <v>421</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="20.25" thickBot="1">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>701</v>
       </c>
       <c r="B231" t="s">
-        <v>458</v>
+        <v>702</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="20.25" thickBot="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="30.75" thickBot="1">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>739</v>
       </c>
       <c r="B232" t="s">
-        <v>460</v>
+        <v>740</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>460</v>
+        <v>762</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="20.25" thickBot="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="75.75" thickBot="1">
       <c r="A233" t="s">
-        <v>804</v>
+        <v>703</v>
       </c>
       <c r="B233" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>462</v>
+        <v>764</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="30.75" thickBot="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="45.75" thickBot="1">
       <c r="A234" t="s">
-        <v>806</v>
+        <v>704</v>
       </c>
       <c r="B234" t="s">
-        <v>807</v>
+        <v>705</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>464</v>
+        <v>765</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="75.75" thickBot="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="30.75" thickBot="1">
       <c r="A235" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="B235" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>466</v>
+        <v>766</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="45.75" thickBot="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20.25" thickBot="1">
       <c r="A236" t="s">
-        <v>810</v>
+        <v>706</v>
       </c>
       <c r="B236" t="s">
-        <v>811</v>
+        <v>429</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="45.75" thickBot="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20.25" thickBot="1">
       <c r="A237" t="s">
-        <v>812</v>
+        <v>707</v>
       </c>
       <c r="B237" t="s">
-        <v>813</v>
+        <v>708</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="20.25" thickBot="1">
       <c r="A238" t="s">
-        <v>814</v>
+        <v>433</v>
       </c>
       <c r="B238" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="20.25" thickBot="1">
       <c r="A239" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="B239" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>474</v>
+        <v>799</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="20.25" thickBot="1">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>709</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>710</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="45.75" thickBot="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="20.25" thickBot="1">
       <c r="A241" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="B241" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>478</v>
+        <v>800</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="20.25" thickBot="1">
       <c r="A242" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="B242" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="30.75" thickBot="1">
       <c r="A243" t="s">
-        <v>821</v>
+        <v>711</v>
       </c>
       <c r="B243" t="s">
-        <v>822</v>
+        <v>712</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="30.75" thickBot="1">
       <c r="A244" t="s">
-        <v>823</v>
+        <v>713</v>
       </c>
       <c r="B244" t="s">
-        <v>824</v>
+        <v>714</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="30.75" thickBot="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="20.25" thickBot="1">
       <c r="A245" t="s">
-        <v>825</v>
+        <v>715</v>
       </c>
       <c r="B245" t="s">
-        <v>826</v>
+        <v>444</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="30.75" thickBot="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="20.25" thickBot="1">
       <c r="A246" t="s">
-        <v>827</v>
+        <v>716</v>
       </c>
       <c r="B246" t="s">
-        <v>828</v>
+        <v>446</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="20.25" thickBot="1">
       <c r="A247" t="s">
-        <v>829</v>
+        <v>717</v>
       </c>
       <c r="B247" t="s">
-        <v>490</v>
+        <v>718</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="20.25" thickBot="1">
       <c r="A248" t="s">
-        <v>830</v>
+        <v>719</v>
       </c>
       <c r="B248" t="s">
-        <v>492</v>
+        <v>720</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A249" t="s">
-        <v>831</v>
-      </c>
-      <c r="B249" t="s">
-        <v>832</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A250" t="s">
-        <v>833</v>
-      </c>
-      <c r="B250" t="s">
-        <v>834</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
